--- a/WEB/src/public/doc/Excel/x32xcelulares.xlsx
+++ b/WEB/src/public/doc/Excel/x32xcelulares.xlsx
@@ -150,10 +150,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
@@ -176,7 +176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>573134814366</v>
       </c>
@@ -190,7 +190,7 @@
         <v>0.114583333333333</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44621</v>
+        <v>44778</v>
       </c>
     </row>
   </sheetData>
